--- a/results/mp/logistic/corona/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,30 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -79,15 +73,15 @@
     <t>fears</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -97,15 +91,15 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
@@ -115,16 +109,22 @@
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>sharing</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
@@ -133,109 +133,91 @@
     <t>special</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>strong</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>giving</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -593,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -712,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -780,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -804,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -830,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -854,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -862,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -880,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>0.8947368421052632</v>
@@ -912,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -930,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0.8666666666666667</v>
@@ -962,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -980,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9">
         <v>0.8660714285714286</v>
@@ -1012,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4736842105263158</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1030,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8407310704960835</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4666666666666667</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1080,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11">
         <v>0.8301886792452831</v>
@@ -1112,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4594594594594595</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>317</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>317</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1162,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.417989417989418</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C13">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1180,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1204,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1212,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3391472868217054</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1230,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1254,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1262,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3137254901960784</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1280,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1304,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1312,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2266666666666667</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1330,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16">
         <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1354,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1362,137 +1344,89 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2080536912751678</v>
+        <v>0.004185447520927237</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>118</v>
+        <v>3093</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L17">
+        <v>28</v>
+      </c>
+      <c r="M17">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17">
-        <v>0.76875</v>
-      </c>
-      <c r="L17">
-        <v>123</v>
-      </c>
-      <c r="M17">
-        <v>123</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.06349206349206349</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>236</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L18">
-        <v>44</v>
-      </c>
-      <c r="M18">
-        <v>44</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.005798969072164949</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>0.14</v>
-      </c>
-      <c r="F19">
-        <v>0.86</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>3086</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.7578125</v>
+        <v>0.7625</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="M19">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1504,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7535211267605634</v>
+        <v>0.7578125</v>
       </c>
       <c r="L20">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M20">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1530,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1556,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.7446808510638298</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1582,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1608,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.7272727272727273</v>
+        <v>0.6875</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1634,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1660,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.7272727272727273</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1686,21 +1620,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.7083333333333334</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1712,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.6976744186046512</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1738,21 +1672,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.6842105263157895</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1764,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.68</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1790,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.6507936507936508</v>
+        <v>0.625</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1816,21 +1750,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.6285714285714286</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1842,21 +1776,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1868,21 +1802,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.575</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1894,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.6088235294117647</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L35">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="M35">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1920,21 +1854,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1946,21 +1880,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1972,21 +1906,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.5648535564853556</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L38">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1998,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5638297872340425</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L39">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2024,15 +1958,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5538461538461539</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L40">
         <v>36</v>
@@ -2050,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.5525423728813559</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L41">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2076,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.5285714285714286</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2102,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.4285714285714285</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2128,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.4269662921348314</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2154,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.3939393939393939</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2180,15 +2114,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.3725490196078431</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="L46">
         <v>19</v>
@@ -2206,111 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K47">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L47">
-        <v>15</v>
-      </c>
-      <c r="M47">
-        <v>15</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K48">
-        <v>0.3150684931506849</v>
-      </c>
-      <c r="L48">
-        <v>23</v>
-      </c>
-      <c r="M48">
-        <v>23</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K49">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="L49">
-        <v>21</v>
-      </c>
-      <c r="M49">
-        <v>21</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K50">
-        <v>0.203125</v>
-      </c>
-      <c r="L50">
-        <v>13</v>
-      </c>
-      <c r="M50">
-        <v>13</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
